--- a/branches/riziv/StructureDefinition-MedRecordUsage.xlsx
+++ b/branches/riziv/StructureDefinition-MedRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="320">
   <si>
     <t>Path</t>
   </si>
@@ -511,20 +511,102 @@
     <t>treatmentPlan</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/treatmentPlan}
+    <t xml:space="preserve">Extension {event-basedOn}
 </t>
   </si>
   <si>
-    <t>Based On</t>
-  </si>
-  <si>
-    <t>The Medication Treatment that this resource belongs to or is based on</t>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl}
+</t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
+  </si>
+  <si>
+    <t>http://hl7belgium.org/fhir/riziv-medicationrecord/StructureDefinition/related-tl</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
     <t>MedicationStatement.modifierExtension</t>
   </si>
   <si>
@@ -576,13 +658,7 @@
     <t>Fulfils plan, proposal or order</t>
   </si>
   <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
@@ -711,13 +787,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1108,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1117,7 +1186,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.8203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1155,7 +1224,7 @@
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.0234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3144,57 +3213,53 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3242,36 +3307,36 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3282,29 +3347,27 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3341,19 +3404,19 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3365,16 +3428,16 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>40</v>
@@ -3382,7 +3445,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3390,10 +3453,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3402,27 +3465,27 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3464,25 +3527,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3493,7 +3556,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3501,10 +3564,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3513,21 +3576,19 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3563,25 +3624,23 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3590,10 +3649,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3602,11 +3661,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3618,26 +3679,24 @@
         <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3662,13 +3721,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3686,10 +3745,10 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3701,23 +3760,25 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3726,10 +3787,10 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3738,17 +3799,15 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3773,13 +3832,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>201</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3797,7 +3856,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3806,16 +3865,16 @@
         <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3824,9 +3883,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3840,22 +3899,22 @@
         <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3882,13 +3941,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3906,7 +3965,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3918,16 +3977,16 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3935,7 +3994,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3943,10 +4002,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3955,20 +4014,18 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -3993,92 +4050,92 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4086,7 +4143,7 @@
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>40</v>
@@ -4104,13 +4161,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4128,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4140,28 +4197,26 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4173,26 +4228,24 @@
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4229,22 +4282,20 @@
         <v>40</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4256,50 +4307,52 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4350,10 +4403,10 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>50</v>
@@ -4365,53 +4418,57 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4459,25 +4516,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4486,9 +4543,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4499,10 +4556,10 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4511,16 +4568,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4558,23 +4615,25 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4583,25 +4642,23 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4610,10 +4667,10 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -4622,18 +4679,18 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4681,13 +4738,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4696,25 +4753,23 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4723,10 +4778,10 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>40</v>
@@ -4735,18 +4790,18 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4794,13 +4849,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -4809,13 +4864,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4823,7 +4878,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4831,7 +4886,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4840,21 +4895,23 @@
         <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4879,13 +4936,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4903,10 +4960,10 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>253</v>
+        <v>210</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -4918,21 +4975,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4943,10 +5000,10 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -4955,15 +5012,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4988,13 +5047,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5012,13 +5071,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5027,21 +5086,21 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5052,29 +5111,27 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5099,13 +5156,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5123,13 +5180,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5141,18 +5198,18 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5160,31 +5217,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5213,34 +5270,32 @@
         <v>116</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB37" s="2"/>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5249,13 +5304,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5263,9 +5318,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5274,7 +5331,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5283,19 +5340,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5321,13 +5378,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5345,13 +5402,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5360,23 +5417,25 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5385,27 +5444,29 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5454,13 +5515,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5469,13 +5530,13 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5483,7 +5544,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5491,10 +5552,10 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>51</v>
@@ -5503,20 +5564,18 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5565,13 +5624,13 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5580,20 +5639,1235 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AB42" s="2"/>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM40">
+  <autoFilter ref="A1:AM51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5603,7 +6877,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI39">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
